--- a/otmm_decimal/result_colab/result_novelty_2000_1.0_15_117_ColabPP/b_2000_1.0_15_117.xlsx
+++ b/otmm_decimal/result_colab/result_novelty_2000_1.0_15_117_ColabPP/b_2000_1.0_15_117.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\result_colab\result_novelty_2000_1.0_15_117_ColabPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{67C67BC8-0C1B-4C14-A869-52F0DCC2A5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3C40B-C13D-43BA-9313-97FB81037DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b_2000_1.0_15_117" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="130">
   <si>
     <t>6dGul(a1-6)</t>
   </si>
@@ -372,11 +382,63 @@
   <si>
     <t>Xylf(b1-2)</t>
   </si>
+  <si>
+    <t>GlcNAc(b1-4)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Man(a1-6)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Gal(b1-4)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GlcNAc(b1-2)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Man(a1-2)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Neu5Ac(a2-3)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Neu5Ac(a2-6)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Fuc(a1-6)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GlcNAc</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Man(a1-3)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GlcNAc(b1-6)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Man(b1-4)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GlcNAc(b1-3)</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -963,11 +1025,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1330,11 +1395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="BD13" workbookViewId="0">
+      <selection activeCell="CY18" sqref="CY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7097,7 +7162,7 @@
         <v>20</v>
       </c>
       <c r="W18" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="X18" t="s">
         <v>22</v>
@@ -7118,7 +7183,7 @@
         <v>27</v>
       </c>
       <c r="AD18" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="AE18" t="s">
         <v>29</v>
@@ -7196,7 +7261,7 @@
         <v>53</v>
       </c>
       <c r="BD18" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="BE18" t="s">
         <v>55</v>
@@ -7208,25 +7273,25 @@
         <v>57</v>
       </c>
       <c r="BH18" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="BI18" t="s">
         <v>59</v>
       </c>
       <c r="BJ18" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="BK18" t="s">
         <v>61</v>
       </c>
       <c r="BL18" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="BM18" t="s">
         <v>63</v>
       </c>
       <c r="BN18" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="BO18" t="s">
         <v>65</v>
@@ -7274,10 +7339,10 @@
         <v>79</v>
       </c>
       <c r="CD18" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="CE18" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="CF18" t="s">
         <v>82</v>
@@ -7286,7 +7351,7 @@
         <v>83</v>
       </c>
       <c r="CH18" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="CI18" t="s">
         <v>85</v>
@@ -7298,7 +7363,7 @@
         <v>87</v>
       </c>
       <c r="CL18" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="CM18" t="s">
         <v>89</v>
@@ -7337,13 +7402,13 @@
         <v>100</v>
       </c>
       <c r="CY18" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="CZ18" t="s">
         <v>102</v>
       </c>
       <c r="DA18" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="DB18" t="s">
         <v>104</v>
@@ -8447,7 +8512,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="2">
         <f t="shared" si="3"/>
         <v>2.3453148279185595E-2</v>
       </c>

--- a/otmm_decimal/result_colab/result_novelty_2000_1.0_15_117_ColabPP/b_2000_1.0_15_117.xlsx
+++ b/otmm_decimal/result_colab/result_novelty_2000_1.0_15_117_ColabPP/b_2000_1.0_15_117.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\result_colab\result_novelty_2000_1.0_15_117_ColabPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3C40B-C13D-43BA-9313-97FB81037DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707BEB04-5AF7-459F-ABDE-74F8D1035865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b_2000_1.0_15_117" sheetId="1" r:id="rId1"/>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD13" workbookViewId="0">
-      <selection activeCell="CY18" sqref="CY18"/>
+    <sheetView tabSelected="1" topLeftCell="CP13" workbookViewId="0">
+      <selection activeCell="DB17" sqref="DB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8339,7 +8339,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DA20">
+      <c r="DA20" s="2">
         <f t="shared" si="1"/>
         <v>2.9673676541417966E-3</v>
       </c>
